--- a/KAMBI MOTO.xlsx
+++ b/KAMBI MOTO.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="420" windowWidth="14805" windowHeight="7695" firstSheet="44" activeTab="47"/>
@@ -59,12 +59,12 @@
   <externalReferences>
     <externalReference r:id="rId49"/>
   </externalReferences>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4578" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4584" uniqueCount="371">
   <si>
     <t xml:space="preserve">RENT STATEMENT </t>
   </si>
@@ -1175,11 +1175,14 @@
   <si>
     <t>FOR THE MONTH OF DECEMBER  2021</t>
   </si>
+  <si>
+    <t>SIMON IRUNGUPAID LL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1798,7 +1801,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1833,7 +1836,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -33084,7 +33087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
@@ -34652,7 +34655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
@@ -37630,7 +37633,7 @@
   <dimension ref="A1:N81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39105,7 +39108,7 @@
   <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42102,7 +42105,7 @@
   <dimension ref="A1:P81"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44382,8 +44385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45841,7 +45844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
@@ -47317,8 +47320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48848,8 +48851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50360,8 +50363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51823,10 +51826,10 @@
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N37" sqref="N37:N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52003,12 +52006,12 @@
         <v>2500</v>
       </c>
       <c r="F10" s="44">
-        <f>1000+1500</f>
-        <v>2500</v>
+        <f>1500</f>
+        <v>1500</v>
       </c>
       <c r="G10" s="3">
         <f>E10-F10</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -52410,11 +52413,11 @@
       </c>
       <c r="F26" s="2">
         <f t="shared" si="4"/>
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="4"/>
-        <v>3850</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -52480,7 +52483,7 @@
       </c>
       <c r="G30" s="3">
         <f>F26</f>
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -52539,7 +52542,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>115</v>
       </c>
@@ -52553,7 +52556,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="19" t="s">
         <v>354</v>
       </c>
@@ -52571,7 +52574,7 @@
       </c>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="19"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -52581,7 +52584,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="19"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -52595,7 +52598,7 @@
         <v>6820</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="19"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -52609,7 +52612,7 @@
         <v>6320</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="19"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -52622,7 +52625,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="19"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -52636,7 +52639,7 @@
         <v>5820</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="19"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -52646,7 +52649,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>26</v>
       </c>
@@ -52667,7 +52670,7 @@
       </c>
       <c r="G41" s="2">
         <f>G30+G31-H32</f>
-        <v>7770</v>
+        <v>6770</v>
       </c>
       <c r="H41" s="2">
         <f>SUM(H34:H40)</f>
@@ -52675,14 +52678,10 @@
       </c>
       <c r="I41" s="2">
         <f>G41-H41</f>
-        <v>-5280</v>
-      </c>
-      <c r="Q41">
-        <f>4820-500</f>
-        <v>4320</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+        <v>-6280</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>33</v>
       </c>
@@ -52693,7 +52692,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>179</v>
       </c>
@@ -52704,7 +52703,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>42</v>
       </c>
@@ -52713,7 +52712,7 @@
       <c r="F46" s="21"/>
       <c r="G46" s="22"/>
     </row>
-    <row r="47" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C47" s="21" t="s">
         <v>0</v>
       </c>
@@ -52726,7 +52725,7 @@
         <v>6820</v>
       </c>
     </row>
-    <row r="48" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C48" s="21" t="s">
         <v>352</v>
       </c>
@@ -53319,8 +53318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53482,19 +53481,19 @@
       </c>
       <c r="C10" s="3">
         <f>'SEPTEMBER 21'!G10:G30</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D10" s="16">
         <v>1000</v>
       </c>
       <c r="E10" s="16">
         <f>D10+C10</f>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F10" s="44"/>
       <c r="G10" s="3">
         <f>E10-F10</f>
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -53884,7 +53883,7 @@
       </c>
       <c r="C26" s="3">
         <f>'SEPTEMBER 21'!G26:G46</f>
-        <v>3850</v>
+        <v>4850</v>
       </c>
       <c r="D26" s="2">
         <f>SUM(D6:D25)</f>
@@ -53892,7 +53891,7 @@
       </c>
       <c r="E26" s="2">
         <f t="shared" ref="E26:G26" si="4">SUM(E6:E25)</f>
-        <v>17650</v>
+        <v>18650</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="4"/>
@@ -53900,7 +53899,7 @@
       </c>
       <c r="G26" s="2">
         <f t="shared" si="4"/>
-        <v>7650</v>
+        <v>8650</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -53982,7 +53981,7 @@
       </c>
       <c r="G31">
         <f>'SEPTEMBER 21'!I41</f>
-        <v>-5280</v>
+        <v>-6280</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -54134,7 +54133,7 @@
       </c>
       <c r="G41" s="2">
         <f>G30+G31-H32</f>
-        <v>3270</v>
+        <v>2270</v>
       </c>
       <c r="H41" s="2">
         <f>SUM(H34:H40)</f>
@@ -54142,7 +54141,7 @@
       </c>
       <c r="I41" s="2">
         <f>G41-H41</f>
-        <v>-9280</v>
+        <v>-10280</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -54769,8 +54768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54948,21 +54947,21 @@
       </c>
       <c r="C10" s="3">
         <f>' OCTOBER 21'!G10:G29</f>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D10" s="16">
         <v>1000</v>
       </c>
       <c r="E10" s="16">
         <f>D10+C10</f>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F10" s="44">
         <v>500</v>
       </c>
       <c r="G10" s="3">
         <f>E10-F10</f>
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -55350,7 +55349,7 @@
       </c>
       <c r="C26" s="3">
         <f>SUM(C6:C25)</f>
-        <v>7150</v>
+        <v>8150</v>
       </c>
       <c r="D26" s="2">
         <f>SUM(D6:D25)</f>
@@ -55358,7 +55357,7 @@
       </c>
       <c r="E26" s="2">
         <f t="shared" ref="E26:G26" si="4">SUM(E6:E25)</f>
-        <v>22650</v>
+        <v>23650</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="4"/>
@@ -55366,7 +55365,7 @@
       </c>
       <c r="G26" s="2">
         <f t="shared" si="4"/>
-        <v>10450</v>
+        <v>11450</v>
       </c>
       <c r="M26">
         <f>M24-M25</f>
@@ -55380,6 +55379,9 @@
       </c>
       <c r="M27">
         <v>500</v>
+      </c>
+      <c r="N27" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -55459,7 +55461,7 @@
       </c>
       <c r="G31">
         <f>' OCTOBER 21'!I41</f>
-        <v>-9280</v>
+        <v>-10280</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -55609,7 +55611,7 @@
       </c>
       <c r="G41" s="2">
         <f>G30+G31-H32</f>
-        <v>1370</v>
+        <v>370</v>
       </c>
       <c r="H41" s="2">
         <f>SUM(H34:H40)</f>
@@ -55617,7 +55619,7 @@
       </c>
       <c r="I41" s="2">
         <f>G41-H41</f>
-        <v>-12080</v>
+        <v>-13080</v>
       </c>
       <c r="O41">
         <f>M28+M65</f>
@@ -55927,12 +55929,10 @@
         <f t="shared" si="6"/>
         <v>2000</v>
       </c>
-      <c r="F59" s="15">
-        <v>2000</v>
-      </c>
+      <c r="F59" s="15"/>
       <c r="G59" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -56011,11 +56011,11 @@
       </c>
       <c r="F63" s="2">
         <f>SUM(F51:F62)</f>
-        <v>15300</v>
+        <v>13300</v>
       </c>
       <c r="G63" s="2">
         <f>SUM(G51:G62)</f>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M63">
         <f>M61-M62</f>
@@ -56087,7 +56087,7 @@
       </c>
       <c r="G67" s="3">
         <f>F63</f>
-        <v>15300</v>
+        <v>13300</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
@@ -56247,7 +56247,7 @@
       </c>
       <c r="G77" s="2">
         <f>G67+G68-H69</f>
-        <v>5600</v>
+        <v>3600</v>
       </c>
       <c r="H77" s="2">
         <f>SUM(H71:H76)</f>
@@ -56255,7 +56255,7 @@
       </c>
       <c r="I77" s="2">
         <f>G77-H77</f>
-        <v>-7000</v>
+        <v>-9000</v>
       </c>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
@@ -56291,10 +56291,10 @@
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O81"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56432,7 +56432,9 @@
       <c r="A9" s="16">
         <v>4</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="C9" s="3">
         <f>'NOVEMBER 21'!G9:G28</f>
         <v>0</v>
@@ -56452,16 +56454,14 @@
       <c r="A10" s="16">
         <v>5</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="15" t="s">
         <v>334</v>
       </c>
       <c r="C10" s="3">
         <f>'NOVEMBER 21'!G10:G29</f>
-        <v>1500</v>
-      </c>
-      <c r="D10" s="16">
-        <v>1000</v>
-      </c>
+        <v>2500</v>
+      </c>
+      <c r="D10" s="16"/>
       <c r="E10" s="16">
         <f>D10+C10</f>
         <v>2500</v>
@@ -56490,10 +56490,12 @@
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="F11" s="44"/>
+      <c r="F11" s="44">
+        <v>2000</v>
+      </c>
       <c r="G11" s="3">
         <f>E11-F11</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -56514,10 +56516,12 @@
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="F12" s="44"/>
+      <c r="F12" s="44">
+        <v>1000</v>
+      </c>
       <c r="G12" s="3">
         <f t="shared" ref="G12:G25" si="2">E12-F12</f>
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -56546,7 +56550,7 @@
       <c r="A14" s="16">
         <v>9</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="15" t="s">
         <v>313</v>
       </c>
       <c r="C14" s="3">
@@ -56612,7 +56616,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>12</v>
       </c>
@@ -56630,13 +56634,18 @@
         <f>D17+C17</f>
         <v>2000</v>
       </c>
-      <c r="F17" s="44"/>
+      <c r="F17" s="44">
+        <v>2000</v>
+      </c>
       <c r="G17" s="14">
         <f>E17-F17</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>13</v>
       </c>
@@ -56659,8 +56668,11 @@
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>14</v>
       </c>
@@ -56678,13 +56690,18 @@
         <f>D19+C19</f>
         <v>1530</v>
       </c>
-      <c r="F19" s="44"/>
+      <c r="F19" s="44">
+        <v>1000</v>
+      </c>
       <c r="G19" s="3">
         <f t="shared" si="2"/>
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+      <c r="P19">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>15</v>
       </c>
@@ -56702,18 +56719,24 @@
         <f t="shared" ref="E20:E25" si="3">D20+C20</f>
         <v>1000</v>
       </c>
-      <c r="F20" s="44"/>
+      <c r="F20" s="44">
+        <v>1000</v>
+      </c>
       <c r="G20" s="3">
         <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f>200*3</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>16</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C21" s="3">
         <f>'NOVEMBER 21'!G21:G40</f>
@@ -56729,8 +56752,11 @@
         <f>E21-F21</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>17</v>
       </c>
@@ -56755,10 +56781,13 @@
       </c>
       <c r="M22">
         <f>D26</f>
-        <v>13500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <v>12500</v>
+      </c>
+      <c r="P22">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>18</v>
       </c>
@@ -56781,10 +56810,14 @@
       </c>
       <c r="M23">
         <f>D32</f>
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+      <c r="P23">
+        <f>SUM(P18:P22)</f>
+        <v>38150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>19</v>
       </c>
@@ -56807,10 +56840,17 @@
       </c>
       <c r="M24">
         <f>M22-M23</f>
-        <v>12150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <v>11250</v>
+      </c>
+      <c r="P24">
+        <v>9800</v>
+      </c>
+      <c r="Q24">
+        <f>1500+4500+2500</f>
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>20</v>
       </c>
@@ -56832,23 +56872,24 @@
         <v>1320</v>
       </c>
       <c r="M25">
-        <v>500</v>
-      </c>
-      <c r="N25" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <f>2000</f>
+        <v>2000</v>
+      </c>
+      <c r="P25">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="3">
         <f>SUM(C6:C25)</f>
-        <v>10450</v>
+        <v>11450</v>
       </c>
       <c r="D26" s="2">
         <f>SUM(D6:D25)</f>
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" ref="E26:G26" si="4">SUM(E6:E25)</f>
@@ -56856,18 +56897,26 @@
       </c>
       <c r="F26" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="4"/>
-        <v>23950</v>
+        <v>16950</v>
       </c>
       <c r="M26">
         <f>M24-M25</f>
-        <v>11650</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+        <v>9250</v>
+      </c>
+      <c r="P26">
+        <f>P23+P24+P25</f>
+        <v>50950</v>
+      </c>
+      <c r="Q26">
+        <f>P26-51750</f>
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C27" s="3">
         <f>'SEPTEMBER 21'!G27:G47</f>
         <v>0</v>
@@ -56875,8 +56924,11 @@
       <c r="M27">
         <v>500</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P27">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>44</v>
       </c>
@@ -56889,10 +56941,14 @@
       <c r="G28" s="12"/>
       <c r="M28">
         <f>M26-M27</f>
-        <v>11150</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8750</v>
+      </c>
+      <c r="P28">
+        <f>P26+P27</f>
+        <v>56950</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
         <v>22</v>
       </c>
@@ -56918,13 +56974,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>211</v>
       </c>
       <c r="C30" s="3">
         <f>D26</f>
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -56933,12 +56989,12 @@
       </c>
       <c r="G30" s="3">
         <f>F26</f>
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>62</v>
       </c>
@@ -56953,12 +57009,12 @@
       </c>
       <c r="G31">
         <f>'NOVEMBER 21'!I41</f>
-        <v>-12080</v>
+        <v>-13080</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>41</v>
       </c>
@@ -56967,7 +57023,7 @@
       </c>
       <c r="D32" s="3">
         <f>C32*C30</f>
-        <v>1350</v>
+        <v>1250</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
@@ -56978,7 +57034,7 @@
       </c>
       <c r="H32" s="3">
         <f>G32*C30</f>
-        <v>1350</v>
+        <v>1250</v>
       </c>
       <c r="I32" s="3"/>
     </row>
@@ -57015,23 +57071,39 @@
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="19"/>
+      <c r="B35" s="19" t="s">
+        <v>370</v>
+      </c>
       <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="D35" s="3">
+        <v>2000</v>
+      </c>
       <c r="E35" s="3"/>
-      <c r="F35" s="19"/>
+      <c r="F35" s="19" t="s">
+        <v>370</v>
+      </c>
       <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="H35" s="3">
+        <v>2000</v>
+      </c>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="19"/>
+      <c r="B36" s="19" t="s">
+        <v>303</v>
+      </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="D36" s="3">
+        <v>8750</v>
+      </c>
       <c r="E36" s="3"/>
-      <c r="F36" s="19"/>
+      <c r="F36" s="19" t="s">
+        <v>303</v>
+      </c>
       <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="H36" s="3">
+        <v>8750</v>
+      </c>
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
@@ -57080,34 +57152,34 @@
       </c>
       <c r="C41" s="2">
         <f>C30+C31-D32</f>
-        <v>12150</v>
+        <v>11250</v>
       </c>
       <c r="D41" s="2">
         <f>SUM(D34:D40)</f>
-        <v>500</v>
+        <v>11250</v>
       </c>
       <c r="E41" s="2">
         <f>C41-D41</f>
-        <v>11650</v>
+        <v>0</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G41" s="2">
         <f>G30+G31-H32</f>
-        <v>-13430</v>
+        <v>-7330</v>
       </c>
       <c r="H41" s="2">
         <f>SUM(H34:H40)</f>
-        <v>500</v>
+        <v>11250</v>
       </c>
       <c r="I41" s="2">
         <f>G41-H41</f>
-        <v>-13930</v>
+        <v>-18580</v>
       </c>
       <c r="O41">
         <f>M28+M65</f>
-        <v>22750</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
@@ -57121,7 +57193,7 @@
         <v>34</v>
       </c>
       <c r="O42">
-        <v>79520</v>
+        <v>85520</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
@@ -57135,8 +57207,13 @@
         <v>51</v>
       </c>
       <c r="O43">
-        <f>O41+O42</f>
-        <v>102270</v>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O44">
+        <f>O41+O42+O43</f>
+        <v>106870</v>
       </c>
     </row>
     <row r="46" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -57158,7 +57235,7 @@
       <c r="G47" s="22"/>
       <c r="L47">
         <f>O42-55000</f>
-        <v>24520</v>
+        <v>30520</v>
       </c>
     </row>
     <row r="48" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -57170,7 +57247,7 @@
       <c r="F48" s="29"/>
       <c r="G48" s="22"/>
     </row>
-    <row r="49" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B49" s="18"/>
       <c r="C49" s="46" t="s">
         <v>139</v>
@@ -57180,7 +57257,7 @@
       <c r="F49" s="31"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>2</v>
       </c>
@@ -57200,7 +57277,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -57214,7 +57291,7 @@
       <c r="F51" s="15"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2</v>
       </c>
@@ -57232,13 +57309,15 @@
         <f>C52+D52</f>
         <v>2000</v>
       </c>
-      <c r="F52" s="15"/>
+      <c r="F52" s="15">
+        <v>2000</v>
+      </c>
       <c r="G52" s="3">
         <f t="shared" ref="G52:G60" si="5">E52-F52</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -57256,13 +57335,15 @@
         <f>C53+D53</f>
         <v>2000</v>
       </c>
-      <c r="F53" s="15"/>
+      <c r="F53" s="15">
+        <v>1000</v>
+      </c>
       <c r="G53" s="3">
         <f>E53-F53</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>4</v>
       </c>
@@ -57280,13 +57361,15 @@
         <f t="shared" ref="E54:E60" si="6">C54+D54</f>
         <v>2000</v>
       </c>
-      <c r="F54" s="15"/>
+      <c r="F54" s="15">
+        <v>2000</v>
+      </c>
       <c r="G54" s="3">
         <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5</v>
       </c>
@@ -57310,7 +57393,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>6</v>
       </c>
@@ -57328,13 +57411,15 @@
         <f t="shared" si="6"/>
         <v>4000</v>
       </c>
-      <c r="F56" s="15"/>
+      <c r="F56" s="15">
+        <v>2000</v>
+      </c>
       <c r="G56" s="3">
         <f t="shared" si="5"/>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>7</v>
       </c>
@@ -57355,8 +57440,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K57">
+        <f>D63</f>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>8</v>
       </c>
@@ -57375,17 +57464,19 @@
         <v>2700</v>
       </c>
       <c r="F58" s="15">
-        <v>700</v>
+        <f>700+1000</f>
+        <v>1700</v>
       </c>
       <c r="G58" s="3">
         <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="H58" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+      <c r="K58">
+        <f>D69</f>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>9</v>
       </c>
@@ -57394,22 +57485,28 @@
       </c>
       <c r="C59" s="3">
         <f>'NOVEMBER 21'!G59:G69</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D59" s="3">
         <v>2000</v>
       </c>
       <c r="E59" s="16">
         <f t="shared" si="6"/>
-        <v>2000</v>
-      </c>
-      <c r="F59" s="15"/>
+        <v>4000</v>
+      </c>
+      <c r="F59" s="15">
+        <v>4000</v>
+      </c>
       <c r="G59" s="3">
         <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <f>K57-K58</f>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>10</v>
       </c>
@@ -57431,7 +57528,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>11</v>
       </c>
@@ -57444,12 +57541,8 @@
       <c r="E61" s="16"/>
       <c r="F61" s="15"/>
       <c r="G61" s="3"/>
-      <c r="M61">
-        <f>C67</f>
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>12</v>
       </c>
@@ -57462,18 +57555,14 @@
       <c r="E62" s="16"/>
       <c r="F62" s="15"/>
       <c r="G62" s="3"/>
-      <c r="M62">
-        <f>D69</f>
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C63" s="3">
         <f>SUM(C51:C62)</f>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="D63" s="2">
         <f>SUM(D51:D62)</f>
@@ -57481,30 +57570,18 @@
       </c>
       <c r="E63" s="2">
         <f>SUM(E51:E62)</f>
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="F63" s="2">
         <f>SUM(F51:F62)</f>
-        <v>700</v>
+        <v>12700</v>
       </c>
       <c r="G63" s="2">
         <f>SUM(G51:G62)</f>
-        <v>20300</v>
-      </c>
-      <c r="M63">
-        <f>M61-M62</f>
-        <v>12600</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M64">
-        <v>1000</v>
-      </c>
-      <c r="N64" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
         <v>44</v>
       </c>
@@ -57515,12 +57592,8 @@
         <v>43</v>
       </c>
       <c r="G65" s="12"/>
-      <c r="M65">
-        <f>M63-M64</f>
-        <v>11600</v>
-      </c>
-    </row>
-    <row r="66" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="11" t="s">
         <v>22</v>
       </c>
@@ -57546,7 +57619,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
         <v>211</v>
       </c>
@@ -57561,12 +57634,12 @@
       </c>
       <c r="G67" s="3">
         <f>F63</f>
-        <v>700</v>
+        <v>12700</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
         <v>62</v>
       </c>
@@ -57581,12 +57654,12 @@
       </c>
       <c r="G68">
         <f>'NOVEMBER 21'!I77</f>
-        <v>-7000</v>
+        <v>-9000</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="s">
         <v>41</v>
       </c>
@@ -57610,7 +57683,7 @@
       </c>
       <c r="I69" s="3"/>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
         <v>115</v>
       </c>
@@ -57624,17 +57697,25 @@
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B71" s="14"/>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="14" t="s">
+        <v>303</v>
+      </c>
       <c r="C71" s="19"/>
-      <c r="D71" s="3"/>
+      <c r="D71" s="3">
+        <v>12600</v>
+      </c>
       <c r="E71" s="3"/>
-      <c r="F71" s="14"/>
+      <c r="F71" s="14" t="s">
+        <v>303</v>
+      </c>
       <c r="G71" s="19"/>
-      <c r="H71" s="3"/>
+      <c r="H71" s="3">
+        <v>12600</v>
+      </c>
       <c r="I71" s="3"/>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="14"/>
       <c r="C72" s="19"/>
       <c r="D72" s="3"/>
@@ -57644,7 +57725,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="10"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -57654,7 +57735,7 @@
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="35"/>
       <c r="C74" s="19"/>
       <c r="D74" s="3"/>
@@ -57664,7 +57745,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="35"/>
       <c r="C75" s="19"/>
       <c r="D75" s="3"/>
@@ -57674,7 +57755,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="10"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -57684,7 +57765,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>26</v>
       </c>
@@ -57694,29 +57775,29 @@
       </c>
       <c r="D77" s="2">
         <f>SUM(D71:D76)</f>
-        <v>0</v>
+        <v>12600</v>
       </c>
       <c r="E77" s="2">
         <f>C77-D77</f>
-        <v>12600</v>
+        <v>0</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G77" s="2">
         <f>G67+G68-H69</f>
-        <v>-7700</v>
+        <v>2300</v>
       </c>
       <c r="H77" s="2">
         <f>SUM(H71:H76)</f>
-        <v>0</v>
+        <v>12600</v>
       </c>
       <c r="I77" s="2">
         <f>G77-H77</f>
-        <v>-7700</v>
-      </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-10300</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>33</v>
       </c>
@@ -57743,6 +57824,7 @@
     <mergeCell ref="C49:D49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
